--- a/src/databases/ouputs_hydrodynamic.xlsx
+++ b/src/databases/ouputs_hydrodynamic.xlsx
@@ -35,7 +35,7 @@
     <t>device001</t>
   </si>
   <si>
-    <t>20 N</t>
+    <t>32 T</t>
   </si>
   <si>
     <t>device002</t>
@@ -164,15 +164,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E8" activeCellId="0" pane="topLeft" sqref="E8"/>
+      <selection activeCell="D5" activeCellId="0" pane="topLeft" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.49803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.65" outlineLevel="0" r="1">
@@ -200,10 +200,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>531556</v>
+        <v>318989</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>25.01</v>
+        <v>4696615</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
@@ -217,10 +217,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>21</v>
+        <v>296136</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>4154</v>
+        <v>4641484</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>6</v>
